--- a/US/data/BOC/FTD/FTDE/ASRVIMBOP_M_historical.xlsx
+++ b/US/data/BOC/FTD/FTDE/ASRVIMBOP_M_historical.xlsx
@@ -2591,92 +2591,88 @@
         <v>610</v>
       </c>
       <c r="IT2" t="n">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="IU2" t="n">
-        <v>555</v>
+        <v>529</v>
       </c>
       <c r="IV2" t="n">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="IW2" t="n">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="IX2" t="n">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="IY2" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="IZ2" t="n">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="JA2" t="n">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="JB2" t="n">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="JC2" t="n">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="JD2" t="n">
-        <v>519</v>
+        <v>565</v>
       </c>
       <c r="JE2" t="n">
-        <v>528</v>
+        <v>610</v>
       </c>
       <c r="JF2" t="n">
-        <v>601</v>
+        <v>658</v>
       </c>
       <c r="JG2" t="n">
+        <v>715</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>677</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>640</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>650</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>631</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>648</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>681</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>662</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>681</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>676</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>663</v>
+      </c>
+      <c r="JR2" t="n">
         <v>666</v>
       </c>
-      <c r="JH2" t="n">
-        <v>664</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>665</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>676</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>637</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>634</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>649</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>605</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>595</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>569</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>553</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>573</v>
-      </c>
       <c r="JS2" t="n">
-        <v>587</v>
-      </c>
-      <c r="JT2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JU2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>673</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>702</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>694</v>
       </c>
       <c r="JV2" t="inlineStr">
         <is>
@@ -3495,92 +3491,88 @@
         <v>9529</v>
       </c>
       <c r="IT3" t="n">
-        <v>8555</v>
+        <v>8824</v>
       </c>
       <c r="IU3" t="n">
-        <v>8765</v>
+        <v>9323</v>
       </c>
       <c r="IV3" t="n">
-        <v>6201</v>
+        <v>6227</v>
       </c>
       <c r="IW3" t="n">
-        <v>4588</v>
+        <v>4585</v>
       </c>
       <c r="IX3" t="n">
-        <v>4541</v>
+        <v>4495</v>
       </c>
       <c r="IY3" t="n">
-        <v>4805</v>
+        <v>4727</v>
       </c>
       <c r="IZ3" t="n">
-        <v>5050</v>
+        <v>5009</v>
       </c>
       <c r="JA3" t="n">
-        <v>5451</v>
+        <v>5366</v>
       </c>
       <c r="JB3" t="n">
-        <v>5726</v>
+        <v>5632</v>
       </c>
       <c r="JC3" t="n">
-        <v>5946</v>
+        <v>5901</v>
       </c>
       <c r="JD3" t="n">
-        <v>6264</v>
+        <v>6180</v>
       </c>
       <c r="JE3" t="n">
-        <v>6519</v>
+        <v>6493</v>
       </c>
       <c r="JF3" t="n">
-        <v>6078</v>
+        <v>6386</v>
       </c>
       <c r="JG3" t="n">
-        <v>6376</v>
+        <v>6668</v>
       </c>
       <c r="JH3" t="n">
-        <v>7411</v>
+        <v>7568</v>
       </c>
       <c r="JI3" t="n">
-        <v>7918</v>
+        <v>7878</v>
       </c>
       <c r="JJ3" t="n">
-        <v>7911</v>
+        <v>8003</v>
       </c>
       <c r="JK3" t="n">
-        <v>8771</v>
+        <v>8740</v>
       </c>
       <c r="JL3" t="n">
-        <v>9088</v>
+        <v>9086</v>
       </c>
       <c r="JM3" t="n">
-        <v>9807</v>
+        <v>9745</v>
       </c>
       <c r="JN3" t="n">
-        <v>9871</v>
+        <v>9778</v>
       </c>
       <c r="JO3" t="n">
-        <v>10039</v>
+        <v>9917</v>
       </c>
       <c r="JP3" t="n">
+        <v>10497</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>10989</v>
+      </c>
+      <c r="JR3" t="n">
         <v>10665</v>
       </c>
-      <c r="JQ3" t="n">
-        <v>10872</v>
-      </c>
-      <c r="JR3" t="n">
-        <v>10073</v>
-      </c>
       <c r="JS3" t="n">
-        <v>10637</v>
-      </c>
-      <c r="JT3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JU3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>11450</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>12480</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>12399</v>
       </c>
       <c r="JV3" t="inlineStr">
         <is>
@@ -4399,92 +4391,88 @@
         <v>11143</v>
       </c>
       <c r="IT4" t="n">
-        <v>9380</v>
+        <v>9018</v>
       </c>
       <c r="IU4" t="n">
-        <v>8899</v>
+        <v>8452</v>
       </c>
       <c r="IV4" t="n">
-        <v>3900</v>
+        <v>3536</v>
       </c>
       <c r="IW4" t="n">
-        <v>874</v>
+        <v>733</v>
       </c>
       <c r="IX4" t="n">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="IY4" t="n">
-        <v>734</v>
+        <v>768</v>
       </c>
       <c r="IZ4" t="n">
-        <v>1062</v>
+        <v>1037</v>
       </c>
       <c r="JA4" t="n">
-        <v>1215</v>
+        <v>1160</v>
       </c>
       <c r="JB4" t="n">
-        <v>1410</v>
+        <v>1328</v>
       </c>
       <c r="JC4" t="n">
-        <v>2166</v>
+        <v>2110</v>
       </c>
       <c r="JD4" t="n">
-        <v>2454</v>
+        <v>2387</v>
       </c>
       <c r="JE4" t="n">
-        <v>2938</v>
+        <v>2871</v>
       </c>
       <c r="JF4" t="n">
-        <v>2563</v>
+        <v>2580</v>
       </c>
       <c r="JG4" t="n">
-        <v>2379</v>
+        <v>2394</v>
       </c>
       <c r="JH4" t="n">
-        <v>2919</v>
+        <v>2968</v>
       </c>
       <c r="JI4" t="n">
-        <v>3253</v>
+        <v>3173</v>
       </c>
       <c r="JJ4" t="n">
-        <v>4027</v>
+        <v>3998</v>
       </c>
       <c r="JK4" t="n">
-        <v>4659</v>
+        <v>4611</v>
       </c>
       <c r="JL4" t="n">
-        <v>5639</v>
+        <v>5465</v>
       </c>
       <c r="JM4" t="n">
-        <v>5868</v>
+        <v>5742</v>
       </c>
       <c r="JN4" t="n">
-        <v>6321</v>
+        <v>6079</v>
       </c>
       <c r="JO4" t="n">
-        <v>6693</v>
+        <v>6488</v>
       </c>
       <c r="JP4" t="n">
-        <v>7038</v>
+        <v>6818</v>
       </c>
       <c r="JQ4" t="n">
-        <v>6582</v>
+        <v>6534</v>
       </c>
       <c r="JR4" t="n">
-        <v>5939</v>
+        <v>5889</v>
       </c>
       <c r="JS4" t="n">
-        <v>6424</v>
-      </c>
-      <c r="JT4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JU4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>6645</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>7699</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>8277</v>
       </c>
       <c r="JV4" t="inlineStr">
         <is>
@@ -5303,92 +5291,88 @@
         <v>109</v>
       </c>
       <c r="IT5" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="IU5" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="IV5" t="n">
+        <v>107</v>
+      </c>
+      <c r="IW5" t="n">
+        <v>94</v>
+      </c>
+      <c r="IX5" t="n">
+        <v>83</v>
+      </c>
+      <c r="IY5" t="n">
+        <v>74</v>
+      </c>
+      <c r="IZ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="JA5" t="n">
+        <v>69</v>
+      </c>
+      <c r="JB5" t="n">
+        <v>79</v>
+      </c>
+      <c r="JC5" t="n">
+        <v>98</v>
+      </c>
+      <c r="JD5" t="n">
+        <v>111</v>
+      </c>
+      <c r="JE5" t="n">
+        <v>120</v>
+      </c>
+      <c r="JF5" t="n">
+        <v>123</v>
+      </c>
+      <c r="JG5" t="n">
+        <v>124</v>
+      </c>
+      <c r="JH5" t="n">
+        <v>124</v>
+      </c>
+      <c r="JI5" t="n">
+        <v>121</v>
+      </c>
+      <c r="JJ5" t="n">
+        <v>117</v>
+      </c>
+      <c r="JK5" t="n">
+        <v>111</v>
+      </c>
+      <c r="JL5" t="n">
+        <v>104</v>
+      </c>
+      <c r="JM5" t="n">
         <v>106</v>
       </c>
-      <c r="IW5" t="n">
-        <v>96</v>
-      </c>
-      <c r="IX5" t="n">
-        <v>87</v>
-      </c>
-      <c r="IY5" t="n">
-        <v>79</v>
-      </c>
-      <c r="IZ5" t="n">
-        <v>73</v>
-      </c>
-      <c r="JA5" t="n">
-        <v>73</v>
-      </c>
-      <c r="JB5" t="n">
-        <v>81</v>
-      </c>
-      <c r="JC5" t="n">
-        <v>96</v>
-      </c>
-      <c r="JD5" t="n">
-        <v>106</v>
-      </c>
-      <c r="JE5" t="n">
-        <v>111</v>
-      </c>
-      <c r="JF5" t="n">
-        <v>112</v>
-      </c>
-      <c r="JG5" t="n">
-        <v>112</v>
-      </c>
-      <c r="JH5" t="n">
-        <v>110</v>
-      </c>
-      <c r="JI5" t="n">
-        <v>104</v>
-      </c>
-      <c r="JJ5" t="n">
-        <v>101</v>
-      </c>
-      <c r="JK5" t="n">
-        <v>99</v>
-      </c>
-      <c r="JL5" t="n">
-        <v>93</v>
-      </c>
-      <c r="JM5" t="n">
-        <v>93</v>
-      </c>
       <c r="JN5" t="n">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="JO5" t="n">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="JP5" t="n">
+        <v>152</v>
+      </c>
+      <c r="JQ5" t="n">
+        <v>158</v>
+      </c>
+      <c r="JR5" t="n">
+        <v>131</v>
+      </c>
+      <c r="JS5" t="n">
         <v>114</v>
       </c>
-      <c r="JQ5" t="n">
-        <v>117</v>
-      </c>
-      <c r="JR5" t="n">
-        <v>116</v>
-      </c>
-      <c r="JS5" t="n">
-        <v>116</v>
-      </c>
-      <c r="JT5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JU5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="JT5" t="n">
+        <v>109</v>
+      </c>
+      <c r="JU5" t="n">
+        <v>114</v>
       </c>
       <c r="JV5" t="inlineStr">
         <is>
@@ -6207,92 +6191,88 @@
         <v>4431</v>
       </c>
       <c r="IT6" t="n">
-        <v>4482</v>
+        <v>4614</v>
       </c>
       <c r="IU6" t="n">
-        <v>4497</v>
+        <v>4691</v>
       </c>
       <c r="IV6" t="n">
-        <v>4474</v>
+        <v>4697</v>
       </c>
       <c r="IW6" t="n">
-        <v>4415</v>
+        <v>4635</v>
       </c>
       <c r="IX6" t="n">
-        <v>4435</v>
+        <v>4656</v>
       </c>
       <c r="IY6" t="n">
-        <v>4534</v>
+        <v>4761</v>
       </c>
       <c r="IZ6" t="n">
-        <v>4711</v>
+        <v>4950</v>
       </c>
       <c r="JA6" t="n">
-        <v>4818</v>
+        <v>5043</v>
       </c>
       <c r="JB6" t="n">
-        <v>4853</v>
+        <v>5040</v>
       </c>
       <c r="JC6" t="n">
-        <v>4817</v>
+        <v>4940</v>
       </c>
       <c r="JD6" t="n">
-        <v>4795</v>
+        <v>4856</v>
       </c>
       <c r="JE6" t="n">
-        <v>4788</v>
+        <v>4789</v>
       </c>
       <c r="JF6" t="n">
-        <v>4703</v>
+        <v>4737</v>
       </c>
       <c r="JG6" t="n">
-        <v>4669</v>
+        <v>4705</v>
       </c>
       <c r="JH6" t="n">
-        <v>4686</v>
+        <v>4692</v>
       </c>
       <c r="JI6" t="n">
-        <v>4650</v>
+        <v>4698</v>
       </c>
       <c r="JJ6" t="n">
-        <v>4637</v>
+        <v>4752</v>
       </c>
       <c r="JK6" t="n">
-        <v>4648</v>
+        <v>4852</v>
       </c>
       <c r="JL6" t="n">
-        <v>4814</v>
+        <v>5001</v>
       </c>
       <c r="JM6" t="n">
-        <v>4925</v>
+        <v>5111</v>
       </c>
       <c r="JN6" t="n">
-        <v>4979</v>
+        <v>5182</v>
       </c>
       <c r="JO6" t="n">
-        <v>4977</v>
+        <v>5216</v>
       </c>
       <c r="JP6" t="n">
-        <v>4981</v>
+        <v>5224</v>
       </c>
       <c r="JQ6" t="n">
-        <v>4990</v>
+        <v>5206</v>
       </c>
       <c r="JR6" t="n">
-        <v>5004</v>
+        <v>5163</v>
       </c>
       <c r="JS6" t="n">
-        <v>5014</v>
-      </c>
-      <c r="JT6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JU6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>5165</v>
+      </c>
+      <c r="JT6" t="n">
+        <v>5214</v>
+      </c>
+      <c r="JU6" t="n">
+        <v>5309</v>
       </c>
       <c r="JV6" t="inlineStr">
         <is>
@@ -7111,92 +7091,88 @@
         <v>3442</v>
       </c>
       <c r="IT7" t="n">
-        <v>3508</v>
+        <v>3782</v>
       </c>
       <c r="IU7" t="n">
-        <v>3514</v>
+        <v>3784</v>
       </c>
       <c r="IV7" t="n">
-        <v>3714</v>
+        <v>3999</v>
       </c>
       <c r="IW7" t="n">
-        <v>3475</v>
+        <v>3750</v>
       </c>
       <c r="IX7" t="n">
-        <v>3490</v>
+        <v>3759</v>
       </c>
       <c r="IY7" t="n">
-        <v>3481</v>
+        <v>3737</v>
       </c>
       <c r="IZ7" t="n">
-        <v>3403</v>
+        <v>3630</v>
       </c>
       <c r="JA7" t="n">
-        <v>3347</v>
+        <v>3562</v>
       </c>
       <c r="JB7" t="n">
-        <v>3454</v>
+        <v>3689</v>
       </c>
       <c r="JC7" t="n">
-        <v>3570</v>
+        <v>3844</v>
       </c>
       <c r="JD7" t="n">
-        <v>3665</v>
+        <v>3934</v>
       </c>
       <c r="JE7" t="n">
-        <v>3634</v>
+        <v>3843</v>
       </c>
       <c r="JF7" t="n">
-        <v>3506</v>
+        <v>3791</v>
       </c>
       <c r="JG7" t="n">
-        <v>3451</v>
+        <v>3761</v>
       </c>
       <c r="JH7" t="n">
-        <v>3541</v>
+        <v>3891</v>
       </c>
       <c r="JI7" t="n">
-        <v>3469</v>
+        <v>3849</v>
       </c>
       <c r="JJ7" t="n">
-        <v>3511</v>
+        <v>3903</v>
       </c>
       <c r="JK7" t="n">
-        <v>3665</v>
+        <v>4055</v>
       </c>
       <c r="JL7" t="n">
-        <v>3819</v>
+        <v>4132</v>
       </c>
       <c r="JM7" t="n">
-        <v>3910</v>
+        <v>4242</v>
       </c>
       <c r="JN7" t="n">
-        <v>4027</v>
+        <v>4358</v>
       </c>
       <c r="JO7" t="n">
-        <v>4001</v>
+        <v>4444</v>
       </c>
       <c r="JP7" t="n">
-        <v>4049</v>
+        <v>4580</v>
       </c>
       <c r="JQ7" t="n">
-        <v>4016</v>
+        <v>4522</v>
       </c>
       <c r="JR7" t="n">
-        <v>4056</v>
+        <v>4372</v>
       </c>
       <c r="JS7" t="n">
-        <v>4078</v>
-      </c>
-      <c r="JT7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JU7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>4309</v>
+      </c>
+      <c r="JT7" t="n">
+        <v>4626</v>
+      </c>
+      <c r="JU7" t="n">
+        <v>4658</v>
       </c>
       <c r="JV7" t="inlineStr">
         <is>
@@ -8015,92 +7991,88 @@
         <v>3445</v>
       </c>
       <c r="IT8" t="n">
-        <v>3676</v>
+        <v>4498</v>
       </c>
       <c r="IU8" t="n">
-        <v>3801</v>
+        <v>4933</v>
       </c>
       <c r="IV8" t="n">
-        <v>3380</v>
+        <v>4041</v>
       </c>
       <c r="IW8" t="n">
-        <v>2918</v>
+        <v>3011</v>
       </c>
       <c r="IX8" t="n">
-        <v>2975</v>
+        <v>3003</v>
       </c>
       <c r="IY8" t="n">
-        <v>3111</v>
+        <v>3003</v>
       </c>
       <c r="IZ8" t="n">
-        <v>3476</v>
+        <v>3280</v>
       </c>
       <c r="JA8" t="n">
-        <v>3761</v>
+        <v>3629</v>
       </c>
       <c r="JB8" t="n">
-        <v>3928</v>
+        <v>4081</v>
       </c>
       <c r="JC8" t="n">
-        <v>3936</v>
+        <v>4667</v>
       </c>
       <c r="JD8" t="n">
-        <v>3972</v>
+        <v>4906</v>
       </c>
       <c r="JE8" t="n">
-        <v>4050</v>
+        <v>4657</v>
       </c>
       <c r="JF8" t="n">
-        <v>4010</v>
+        <v>3764</v>
       </c>
       <c r="JG8" t="n">
-        <v>3938</v>
+        <v>3114</v>
       </c>
       <c r="JH8" t="n">
-        <v>3834</v>
+        <v>2973</v>
       </c>
       <c r="JI8" t="n">
-        <v>3712</v>
+        <v>3340</v>
       </c>
       <c r="JJ8" t="n">
-        <v>3647</v>
+        <v>3564</v>
       </c>
       <c r="JK8" t="n">
-        <v>3640</v>
+        <v>3645</v>
       </c>
       <c r="JL8" t="n">
-        <v>4428</v>
+        <v>4298</v>
       </c>
       <c r="JM8" t="n">
-        <v>4290</v>
+        <v>4085</v>
       </c>
       <c r="JN8" t="n">
-        <v>3812</v>
+        <v>3593</v>
       </c>
       <c r="JO8" t="n">
-        <v>3839</v>
+        <v>3668</v>
       </c>
       <c r="JP8" t="n">
-        <v>3851</v>
+        <v>3677</v>
       </c>
       <c r="JQ8" t="n">
-        <v>3847</v>
+        <v>3621</v>
       </c>
       <c r="JR8" t="n">
-        <v>3827</v>
+        <v>3985</v>
       </c>
       <c r="JS8" t="n">
-        <v>5050</v>
-      </c>
-      <c r="JT8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JU8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>5482</v>
+      </c>
+      <c r="JT8" t="n">
+        <v>4403</v>
+      </c>
+      <c r="JU8" t="n">
+        <v>4457</v>
       </c>
       <c r="JV8" t="inlineStr">
         <is>
@@ -8919,92 +8891,88 @@
         <v>3533</v>
       </c>
       <c r="IT9" t="n">
-        <v>3366</v>
+        <v>3426</v>
       </c>
       <c r="IU9" t="n">
-        <v>3259</v>
+        <v>3336</v>
       </c>
       <c r="IV9" t="n">
-        <v>3174</v>
+        <v>3273</v>
       </c>
       <c r="IW9" t="n">
-        <v>3146</v>
+        <v>3240</v>
       </c>
       <c r="IX9" t="n">
-        <v>3134</v>
+        <v>3213</v>
       </c>
       <c r="IY9" t="n">
-        <v>3097</v>
+        <v>3194</v>
       </c>
       <c r="IZ9" t="n">
-        <v>3048</v>
+        <v>3182</v>
       </c>
       <c r="JA9" t="n">
-        <v>3066</v>
+        <v>3212</v>
       </c>
       <c r="JB9" t="n">
-        <v>3149</v>
+        <v>3284</v>
       </c>
       <c r="JC9" t="n">
-        <v>3298</v>
+        <v>3399</v>
       </c>
       <c r="JD9" t="n">
-        <v>3401</v>
+        <v>3470</v>
       </c>
       <c r="JE9" t="n">
-        <v>3458</v>
+        <v>3498</v>
       </c>
       <c r="JF9" t="n">
-        <v>3364</v>
+        <v>3481</v>
       </c>
       <c r="JG9" t="n">
-        <v>3312</v>
+        <v>3478</v>
       </c>
       <c r="JH9" t="n">
-        <v>3303</v>
+        <v>3506</v>
       </c>
       <c r="JI9" t="n">
-        <v>3361</v>
+        <v>3547</v>
       </c>
       <c r="JJ9" t="n">
-        <v>3389</v>
+        <v>3550</v>
       </c>
       <c r="JK9" t="n">
-        <v>3386</v>
+        <v>3534</v>
       </c>
       <c r="JL9" t="n">
-        <v>3358</v>
+        <v>3492</v>
       </c>
       <c r="JM9" t="n">
-        <v>3385</v>
+        <v>3515</v>
       </c>
       <c r="JN9" t="n">
-        <v>3465</v>
+        <v>3601</v>
       </c>
       <c r="JO9" t="n">
-        <v>3600</v>
+        <v>3752</v>
       </c>
       <c r="JP9" t="n">
-        <v>3693</v>
+        <v>3835</v>
       </c>
       <c r="JQ9" t="n">
-        <v>3743</v>
+        <v>3851</v>
       </c>
       <c r="JR9" t="n">
-        <v>3751</v>
+        <v>3803</v>
       </c>
       <c r="JS9" t="n">
-        <v>3756</v>
-      </c>
-      <c r="JT9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JU9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>3787</v>
+      </c>
+      <c r="JT9" t="n">
+        <v>3804</v>
+      </c>
+      <c r="JU9" t="n">
+        <v>3854</v>
       </c>
       <c r="JV9" t="inlineStr">
         <is>
@@ -9823,92 +9791,88 @@
         <v>9391</v>
       </c>
       <c r="IT10" t="n">
-        <v>9638</v>
+        <v>9288</v>
       </c>
       <c r="IU10" t="n">
-        <v>9772</v>
+        <v>9271</v>
       </c>
       <c r="IV10" t="n">
-        <v>9716</v>
+        <v>9210</v>
       </c>
       <c r="IW10" t="n">
-        <v>9549</v>
+        <v>9163</v>
       </c>
       <c r="IX10" t="n">
-        <v>9517</v>
+        <v>9157</v>
       </c>
       <c r="IY10" t="n">
-        <v>9542</v>
+        <v>9135</v>
       </c>
       <c r="IZ10" t="n">
-        <v>9647</v>
+        <v>9115</v>
       </c>
       <c r="JA10" t="n">
-        <v>9774</v>
+        <v>9224</v>
       </c>
       <c r="JB10" t="n">
-        <v>9921</v>
+        <v>9461</v>
       </c>
       <c r="JC10" t="n">
-        <v>10091</v>
+        <v>9827</v>
       </c>
       <c r="JD10" t="n">
-        <v>10215</v>
+        <v>10038</v>
       </c>
       <c r="JE10" t="n">
-        <v>10291</v>
+        <v>10090</v>
       </c>
       <c r="JF10" t="n">
         <v>9980</v>
       </c>
       <c r="JG10" t="n">
-        <v>9838</v>
+        <v>9959</v>
       </c>
       <c r="JH10" t="n">
-        <v>9864</v>
+        <v>10048</v>
       </c>
       <c r="JI10" t="n">
-        <v>9981</v>
+        <v>10246</v>
       </c>
       <c r="JJ10" t="n">
-        <v>10172</v>
+        <v>10499</v>
       </c>
       <c r="JK10" t="n">
-        <v>10438</v>
+        <v>10807</v>
       </c>
       <c r="JL10" t="n">
-        <v>10858</v>
+        <v>11169</v>
       </c>
       <c r="JM10" t="n">
-        <v>11109</v>
+        <v>11387</v>
       </c>
       <c r="JN10" t="n">
-        <v>11191</v>
+        <v>11460</v>
       </c>
       <c r="JO10" t="n">
-        <v>11105</v>
+        <v>11389</v>
       </c>
       <c r="JP10" t="n">
-        <v>11092</v>
+        <v>11341</v>
       </c>
       <c r="JQ10" t="n">
-        <v>11152</v>
+        <v>11317</v>
       </c>
       <c r="JR10" t="n">
-        <v>11286</v>
+        <v>11280</v>
       </c>
       <c r="JS10" t="n">
-        <v>11375</v>
-      </c>
-      <c r="JT10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JU10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>11318</v>
+      </c>
+      <c r="JT10" t="n">
+        <v>11431</v>
+      </c>
+      <c r="JU10" t="n">
+        <v>11620</v>
       </c>
       <c r="JV10" t="inlineStr">
         <is>
@@ -10727,92 +10691,88 @@
         <v>1760</v>
       </c>
       <c r="IT11" t="n">
-        <v>1823</v>
+        <v>1889</v>
       </c>
       <c r="IU11" t="n">
-        <v>1858</v>
+        <v>1915</v>
       </c>
       <c r="IV11" t="n">
-        <v>1862</v>
+        <v>1926</v>
       </c>
       <c r="IW11" t="n">
-        <v>1839</v>
+        <v>1923</v>
       </c>
       <c r="IX11" t="n">
-        <v>1841</v>
+        <v>1934</v>
       </c>
       <c r="IY11" t="n">
-        <v>1868</v>
+        <v>1956</v>
       </c>
       <c r="IZ11" t="n">
-        <v>1962</v>
+        <v>2030</v>
       </c>
       <c r="JA11" t="n">
-        <v>2021</v>
+        <v>2087</v>
       </c>
       <c r="JB11" t="n">
-        <v>2043</v>
+        <v>2129</v>
       </c>
       <c r="JC11" t="n">
-        <v>2030</v>
+        <v>2155</v>
       </c>
       <c r="JD11" t="n">
-        <v>2021</v>
+        <v>2179</v>
       </c>
       <c r="JE11" t="n">
-        <v>2017</v>
+        <v>2201</v>
       </c>
       <c r="JF11" t="n">
-        <v>2112</v>
+        <v>2220</v>
       </c>
       <c r="JG11" t="n">
-        <v>2156</v>
+        <v>2253</v>
       </c>
       <c r="JH11" t="n">
-        <v>2148</v>
+        <v>2300</v>
       </c>
       <c r="JI11" t="n">
-        <v>2225</v>
+        <v>2361</v>
       </c>
       <c r="JJ11" t="n">
-        <v>2276</v>
+        <v>2392</v>
       </c>
       <c r="JK11" t="n">
-        <v>2299</v>
+        <v>2392</v>
       </c>
       <c r="JL11" t="n">
-        <v>2247</v>
+        <v>2361</v>
       </c>
       <c r="JM11" t="n">
-        <v>2229</v>
+        <v>2354</v>
       </c>
       <c r="JN11" t="n">
-        <v>2246</v>
+        <v>2371</v>
       </c>
       <c r="JO11" t="n">
-        <v>2297</v>
+        <v>2411</v>
       </c>
       <c r="JP11" t="n">
+        <v>2438</v>
+      </c>
+      <c r="JQ11" t="n">
+        <v>2451</v>
+      </c>
+      <c r="JR11" t="n">
+        <v>2379</v>
+      </c>
+      <c r="JS11" t="n">
         <v>2340</v>
       </c>
-      <c r="JQ11" t="n">
-        <v>2376</v>
-      </c>
-      <c r="JR11" t="n">
-        <v>2404</v>
-      </c>
-      <c r="JS11" t="n">
-        <v>2423</v>
-      </c>
-      <c r="JT11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JU11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="JT11" t="n">
+        <v>2334</v>
+      </c>
+      <c r="JU11" t="n">
+        <v>2361</v>
       </c>
       <c r="JV11" t="inlineStr">
         <is>
@@ -11637,34 +11597,34 @@
         <v>2024</v>
       </c>
       <c r="IV12" t="n">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="IW12" t="n">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="IX12" t="n">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="IY12" t="n">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="IZ12" t="n">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="JA12" t="n">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="JB12" t="n">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="JC12" t="n">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="JD12" t="n">
-        <v>2066</v>
+        <v>2070</v>
       </c>
       <c r="JE12" t="n">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="JF12" t="n">
         <v>2070</v>
@@ -11679,28 +11639,28 @@
         <v>2097</v>
       </c>
       <c r="JJ12" t="n">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="JK12" t="n">
         <v>2112</v>
       </c>
       <c r="JL12" t="n">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="JM12" t="n">
         <v>2109</v>
       </c>
       <c r="JN12" t="n">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="JO12" t="n">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="JP12" t="n">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="JQ12" t="n">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="JR12" t="n">
         <v>2104</v>
@@ -11708,15 +11668,11 @@
       <c r="JS12" t="n">
         <v>2109</v>
       </c>
-      <c r="JT12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JU12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="JT12" t="n">
+        <v>2112</v>
+      </c>
+      <c r="JU12" t="n">
+        <v>2114</v>
       </c>
       <c r="JV12" t="inlineStr">
         <is>
